--- a/TestDocs/tracker.xlsx
+++ b/TestDocs/tracker.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="564" windowWidth="10236" windowHeight="5244"/>
+    <workbookView xWindow="360" yWindow="564" windowWidth="10236" windowHeight="5244" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="track-list" sheetId="1" r:id="rId1"/>
     <sheet name="categories" sheetId="2" r:id="rId2"/>
     <sheet name="curb quality" sheetId="3" r:id="rId3"/>
+    <sheet name="document properties" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>description</t>
   </si>
@@ -139,6 +140,9 @@
   </si>
   <si>
     <t>other notes</t>
+  </si>
+  <si>
+    <t>C:\Documents and Settings\Katie\My Documents\GitHub\make-a-gh-page\TestDocs\tracker.xlsx</t>
   </si>
 </sst>
 </file>
@@ -185,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -203,6 +207,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,7 +507,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -752,4 +759,30 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="87.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6">
+        <v>41466</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>